--- a/Diagramme.xlsx
+++ b/Diagramme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Frank\Documents\Documents\Universitaet\Bachelorarbeit\BA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659BF252-23DC-4971-AAAD-DFDF1581ADE4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BE4A28-B2FD-4637-AAB1-9325BBC133B4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{B597FADE-B80E-4FF2-9AEB-90D9AD4CDA9A}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{B597FADE-B80E-4FF2-9AEB-90D9AD4CDA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Loss</t>
   </si>
@@ -78,24 +78,106 @@
     <t>ResNet_Shift</t>
   </si>
   <si>
-    <t>Inception_v4</t>
+    <t>Inception_v4_SE</t>
   </si>
   <si>
-    <t>Inception_v4_SE</t>
+    <t xml:space="preserve">             precision    recall  f1-score   support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          0       0.66      0.74      0.70      7163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1       0.59      0.53      0.56      4834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2       0.54      0.45      0.49      3003</t>
+  </si>
+  <si>
+    <t>avg / total       0.61      0.62      0.61     15000</t>
+  </si>
+  <si>
+    <t>Inception v4</t>
+  </si>
+  <si>
+    <t>Inception_v4_Shift</t>
+  </si>
+  <si>
+    <t>Inception SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          0       0.61      0.87      0.72      7082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1       0.75      0.25      0.38      4973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2       0.46      0.51      0.48      2945</t>
+  </si>
+  <si>
+    <t>avg / total       0.63      0.59      0.56     15000</t>
+  </si>
+  <si>
+    <t>Classification Report</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>Dein User-Hash: -KjzVy8ICv-MSyEpOWYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          0       0.61      0.83      0.71      7082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1       0.59      0.54      0.56      4973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2       0.53      0.16      0.24      2945</t>
+  </si>
+  <si>
+    <t>avg / total       0.59      0.60      0.57     15000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          0       0.62      0.77      0.69      7082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          1       0.59      0.48      0.53      4973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          2       0.46      0.35      0.40      2945</t>
+  </si>
+  <si>
+    <t>avg / total       0.58      0.59      0.58     15000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,13 +203,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -752,6 +839,9 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>41</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -914,6 +1004,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2560,6 +2677,9 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>41</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -2722,6 +2842,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3871,6 +4018,504 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Inception V4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$M$3:$M$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.56381261348724299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53636366128921498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.575364649295806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57373273372650102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60113728046417203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54072397947311401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58189302682876498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51973682641982999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57368856668472201</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58415842056274403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59459459781646695</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51758795976638705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.615023493766784</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64736843109130804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61000001430511397</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.514018714427948</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.60830324888229304</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56074768304824796</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.587360620498657</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56930691003799405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.62616825103759699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59259259700775102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.614341080188751</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.62303662300109797</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.65185183286666804</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56353592872619596</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.65936255455017001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.66834169626235895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.71047621965408303</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65088754892349199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E69-4648-B1A7-B5E2CA1543BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Inception V4 SE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$3:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$N$3:$N$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.55573505163192705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53636366128921498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.566450595855712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56682026386260898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59382617473602295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55203622579574496</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58106994628906194</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50657892227172796</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57618653774261397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54950493574142401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61049282550811701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54773867130279497</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61815339326858498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.61578947305679299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.61333334445953303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57009345293045</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.563176870346069</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55140185356140103</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.58178436756134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57425743341445901</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.61682242155074996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.640211641788482</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.61627906560897805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.612565457820892</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61481481790542603</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62983423471450795</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.62151396274566595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.69346731901168801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68380951881408603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.66272187232971103</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8E69-4648-B1A7-B5E2CA1543BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4113,8 +4758,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.82520119951598481"/>
           <c:y val="4.7811783986761738E-2"/>
-          <c:w val="0.16411791733160302"/>
-          <c:h val="0.33613747711448666"/>
+          <c:w val="0.17479876500074751"/>
+          <c:h val="0.42806477377390706"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4710,6 +5355,9 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>41</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -4872,6 +5520,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5494,6 +6169,3848 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4413373561949612E-2"/>
+          <c:y val="3.4879107813893868E-2"/>
+          <c:w val="0.73724181673552491"/>
+          <c:h val="0.82432564353451943"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Loss_NoAug</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$T$3:$T$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0" formatCode="#,##0.00000000">
+                  <c:v>1.64689624309539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93181097507476796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89360350370407104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97256249189376798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98953735828399603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97400993108749301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96137124300002996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95043367147445601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94312769174575795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.93676632642745905</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93163722753524703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.924874067306518</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92016392946243197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91525191068649203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90911900997161799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89859384298324496</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.89621353149413996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88959175348281805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.88384062051773005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.881028532981872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87948518991470304</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86159831285476596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.85371065139770497</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.851171255111694</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.83710575103759699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82738035917282104</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.81050229072570801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79890406131744296</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.78729587793350198</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.76545530557632402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74517440795898404</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72477710247039795</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.70873260498046797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.68617188930511397</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66600388288497903</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64646100997924805</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62736707925796498</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59651643037795998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.57528489828109697</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.54640847444534302</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52776730060577304</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50577461719512895</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.49222013354301403</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.46821144223213101</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45668008923530501</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.435763388872146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2FE-4F5F-8730-3DB692E0F148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Loss_Mirrored</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$U$3:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0" formatCode="#,##0.00000000">
+                  <c:v>1.5795717239379801</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92394167184829701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92221993207931496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.873313128948211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85016560554504395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98837685585021895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99064099788665705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98238271474838201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94147998094558705</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89492106437683105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87572991847991899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86798119544982899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85971450805663996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85297203063964799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84452629089355402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83819967508315996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83871614933013905</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82853221893310502</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81978726387023904</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81395488977432195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.80744612216949396</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80421471595764105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79786705970764105</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.78925657272338801</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86503285169601396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95084768533706598</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.93356812000274603</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92408394813537598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91590124368667603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90649455785751298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89605402946472101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88744497299194303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88065522909164395</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.87041020393371504</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86281365156173695</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85213178396224898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.84208422899246205</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.83519226312637296</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.82299041748046797</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.81167596578598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2FE-4F5F-8730-3DB692E0F148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Loss_Rotated</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$V$3:$V$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0" formatCode="#,##0.00000000">
+                  <c:v>1.0346088409423799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92548203468322698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.893837749958038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94451141357421797</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.93519210815429599</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91804230213165205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90174114704132002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88817721605300903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87622153759002597</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86492615938186601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85269528627395597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83963751792907704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82684749364852905</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81281548738479603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79730033874511697</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78135168552398604</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76364588737487704</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.74517005681991499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72634923458099299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70461004972457797</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.68322145938873202</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66116797924041704</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63805246353149403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61465495824813798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.59101229906082098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.56895947456359797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54622775316238403</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.52465027570724398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.50251293182373002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.482628554105758</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.462867021560668</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44395640492439198</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.42634409666061401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.40960869193076999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.39591392874717701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.37981256842613198</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36803859472274703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.35823503136634799</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34613817930221502</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.336194097995758</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.32634022831916798</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.31857731938362099</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.31250753998756398</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.30238568782806302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.29379945993423401</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.28623524308204601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.27927994728088301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.27494293451309199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.26630407571792603</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.26247870922088601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2FE-4F5F-8730-3DB692E0F148}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="461367072"/>
+        <c:axId val="461364448"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>41</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$3:$A$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$44:$A$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-C2FE-4F5F-8730-3DB692E0F148}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Epoche</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$3:$A$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$3:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-C2FE-4F5F-8730-3DB692E0F148}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="461367072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Epochen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461364448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461364448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Verlustwerte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461367072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84123685473895204"/>
+          <c:y val="4.7811783986761738E-2"/>
+          <c:w val="0.14808223738387841"/>
+          <c:h val="0.84664076138347399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4413373561949612E-2"/>
+          <c:y val="3.4879107813893868E-2"/>
+          <c:w val="0.73724181673552491"/>
+          <c:h val="0.82432564353451943"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Loss_NoAug</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$W$3:$W$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1.7252457141876201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0090874433517401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98798394203186002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97950619459152199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97527569532394398</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96619337797164895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95652341842651301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.95135360956192005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90414065122604304</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88296961784362704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87003892660140902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.93744605779647805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93725764751434304</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.92911452054977395</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92336386442184404</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91835933923721302</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91361683607101396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91236889362335205</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90191745758056596</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89368528127670199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.88594424724578802</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87628853321075395</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.866915702819824</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85937392711639404</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84569084644317605</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83238792419433505</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.81364041566848699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.79498153924942005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.77894961833953802</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.75890636444091797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74255049228668202</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72325569391250599</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.69851070642471302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67952531576156605</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65863239765167203</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63192850351333596</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.62081241607666005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.59839391708374001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56429135799407903</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.54676181077957098</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52885401248931796</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.52205884456634499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.48227742314338601</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45985120534896801</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.43046405911445601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.414477229118347</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.39776611328125</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36520317196846003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36132836341857899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7064-41DE-A951-6D9F05848B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Loss_Mirrored</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$X$3:$X$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1.58284139633178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93197190761566095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98717272281646695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97639167308807295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89298105239868097</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88933658599853505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98595684766769398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97119164466857899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.96321725845336903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95578026771545399</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94994688034057595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94215840101241999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91426485776901201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.862193644046783</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84959858655929499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.84010094404220503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83087784051895097</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82567977905273404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81931704282760598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80686312913894598</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79777723550796498</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.788463175296783</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.77811849117278997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.76951205730438199</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.75998145341873102</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.74569809436798096</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.73300814628600997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.721560478210449</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70908224582672097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69202518463134699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.89220696687698298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.88185870647430398</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.85746729373931796</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.83729529380798295</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.81519955396652199</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79278147220611495</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.77272152900695801</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.74046611785888605</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.71589183807373002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66894286870956399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62952268123626698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7064-41DE-A951-6D9F05848B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Loss_Rotated</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$A$3:$A$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$Y$3:$Y$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1.31125283241271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0384438037872299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03766000270843</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.02365982532501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0149163007736199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0099350214004501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0040146112442001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0000244379043499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99342882633209195</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98526227474212602</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97451078891754095</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96605581045150701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95617431402206399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94798070192337003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93982958793640103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93173515796661299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92392748594284002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.91674602031707697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90814453363418501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.89928036928176802</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.89045351743698098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.88179516792297297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.87101554870605402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85974317789077703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.84733092784881503</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83422231674194303</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.82271885871887196</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.80819284915923995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.79215836524963301</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.77921307086944502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.76472300291061401</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.74323111772537198</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72463107109069802</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70570969581604004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.68792963027954102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.67210590839385898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65218126773834195</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63484311103820801</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.61687654256820601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.59753710031509399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.58250874280929499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56619656085967995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55352264642715399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.53930205106735196</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52196645736694303</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.51202154159545898</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.49922284483909601</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.48641505837440402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7064-41DE-A951-6D9F05848B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="461367072"/>
+        <c:axId val="461364448"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$43</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>41</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$3:$A$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$44:$A$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-7064-41DE-A951-6D9F05848B2C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Epoche</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$3:$A$52</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="50"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$A$3:$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="40"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7064-41DE-A951-6D9F05848B2C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="461367072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Epochen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461364448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461364448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Verlustwerte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461367072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.84123685473895204"/>
+          <c:y val="4.7811783986761738E-2"/>
+          <c:w val="0.14808223738387841"/>
+          <c:h val="0.84664076138347399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5654,6 +10171,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7203,6 +11800,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7865,6 +13494,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>670413</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEADC799-95ED-4CC4-BEE8-381A790F9564}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>267433</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>4763</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF19294-6B48-4363-A5BE-20B0BA03C4B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8170,10 +13875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7EEEB8-4314-42F6-8CEF-758C6FFA22FB}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="X71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AK72" sqref="AK72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8187,34 +13892,47 @@
     <col min="17" max="17" width="16" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
+      <c r="T1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="U1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V1">
+        <v>1E-3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8245,22 +13963,22 @@
       <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
       </c>
       <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
         <v>15</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
       </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
@@ -8272,8 +13990,26 @@
       <c r="S2" t="s">
         <v>11</v>
       </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8310,6 +14046,12 @@
       <c r="L3">
         <v>0.59935379028320301</v>
       </c>
+      <c r="M3">
+        <v>0.56381261348724299</v>
+      </c>
+      <c r="N3">
+        <v>0.55573505163192705</v>
+      </c>
       <c r="O3">
         <v>0.610662341117858</v>
       </c>
@@ -8322,8 +14064,26 @@
       <c r="S3" s="3">
         <v>397843464192</v>
       </c>
+      <c r="T3" s="4">
+        <v>1.64689624309539</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1.5795717239379801</v>
+      </c>
+      <c r="V3" s="4">
+        <v>1.0346088409423799</v>
+      </c>
+      <c r="W3">
+        <v>1.7252457141876201</v>
+      </c>
+      <c r="X3">
+        <v>1.58284139633178</v>
+      </c>
+      <c r="Y3">
+        <v>1.31125283241271</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8360,6 +14120,12 @@
       <c r="L4">
         <v>0.57727271318435602</v>
       </c>
+      <c r="M4">
+        <v>0.53636366128921498</v>
+      </c>
+      <c r="N4">
+        <v>0.53636366128921498</v>
+      </c>
       <c r="O4">
         <v>0.556818187236785</v>
       </c>
@@ -8372,8 +14138,29 @@
       <c r="S4" s="3">
         <v>0.95818102359771695</v>
       </c>
+      <c r="T4">
+        <v>0.93181097507476796</v>
+      </c>
+      <c r="U4">
+        <v>0.92394167184829701</v>
+      </c>
+      <c r="V4">
+        <v>0.92548203468322698</v>
+      </c>
+      <c r="W4">
+        <v>1.0090874433517401</v>
+      </c>
+      <c r="X4">
+        <v>0.93197190761566095</v>
+      </c>
+      <c r="Y4">
+        <v>1.0384438037872299</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8410,6 +14197,12 @@
       <c r="L5">
         <v>0.59805512428283603</v>
       </c>
+      <c r="M5">
+        <v>0.575364649295806</v>
+      </c>
+      <c r="N5">
+        <v>0.566450595855712</v>
+      </c>
       <c r="O5">
         <v>0.62155592441558805</v>
       </c>
@@ -8422,8 +14215,29 @@
       <c r="S5" s="3">
         <v>0.95040428638458196</v>
       </c>
+      <c r="T5">
+        <v>0.89360350370407104</v>
+      </c>
+      <c r="U5">
+        <v>0.92221993207931496</v>
+      </c>
+      <c r="V5">
+        <v>0.893837749958038</v>
+      </c>
+      <c r="W5">
+        <v>0.98798394203186002</v>
+      </c>
+      <c r="X5">
+        <v>0.98717272281646695</v>
+      </c>
+      <c r="Y5">
+        <v>1.03766000270843</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8460,6 +14274,12 @@
       <c r="L6">
         <v>0.63824886083602905</v>
       </c>
+      <c r="M6">
+        <v>0.57373273372650102</v>
+      </c>
+      <c r="N6">
+        <v>0.56682026386260898</v>
+      </c>
       <c r="O6">
         <v>0.60829490423202504</v>
       </c>
@@ -8472,8 +14292,29 @@
       <c r="S6" s="3">
         <v>0.94680356979370095</v>
       </c>
+      <c r="T6">
+        <v>0.97256249189376798</v>
+      </c>
+      <c r="U6">
+        <v>0.873313128948211</v>
+      </c>
+      <c r="V6">
+        <v>0.94451141357421797</v>
+      </c>
+      <c r="W6">
+        <v>0.97950619459152199</v>
+      </c>
+      <c r="X6">
+        <v>0.97639167308807295</v>
+      </c>
+      <c r="Y6">
+        <v>1.02365982532501</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8510,6 +14351,12 @@
       <c r="L7">
         <v>0.59626322984695401</v>
       </c>
+      <c r="M7">
+        <v>0.60113728046417203</v>
+      </c>
+      <c r="N7">
+        <v>0.59382617473602295</v>
+      </c>
       <c r="O7">
         <v>0.62713241577148404</v>
       </c>
@@ -8522,8 +14369,26 @@
       <c r="S7" s="3">
         <v>0.95014041662216098</v>
       </c>
+      <c r="T7">
+        <v>0.98953735828399603</v>
+      </c>
+      <c r="U7">
+        <v>0.85016560554504395</v>
+      </c>
+      <c r="V7">
+        <v>0.93519210815429599</v>
+      </c>
+      <c r="W7">
+        <v>0.97527569532394398</v>
+      </c>
+      <c r="X7">
+        <v>0.89298105239868097</v>
+      </c>
+      <c r="Y7">
+        <v>1.0149163007736199</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8560,6 +14425,12 @@
       <c r="L8">
         <v>0.61312216520309404</v>
       </c>
+      <c r="M8">
+        <v>0.54072397947311401</v>
+      </c>
+      <c r="N8">
+        <v>0.55203622579574496</v>
+      </c>
       <c r="O8">
         <v>0.55203622579574496</v>
       </c>
@@ -8572,8 +14443,29 @@
       <c r="S8" s="3">
         <v>0.948333859443664</v>
       </c>
+      <c r="T8">
+        <v>0.97400993108749301</v>
+      </c>
+      <c r="U8">
+        <v>0.98837685585021895</v>
+      </c>
+      <c r="V8">
+        <v>0.91804230213165205</v>
+      </c>
+      <c r="W8">
+        <v>0.96619337797164895</v>
+      </c>
+      <c r="X8">
+        <v>0.88933658599853505</v>
+      </c>
+      <c r="Y8">
+        <v>1.0099350214004501</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8610,6 +14502,12 @@
       <c r="L9">
         <v>0.60658437013626099</v>
       </c>
+      <c r="M9">
+        <v>0.58189302682876498</v>
+      </c>
+      <c r="N9">
+        <v>0.58106994628906194</v>
+      </c>
       <c r="O9">
         <v>0.63868314027786199</v>
       </c>
@@ -8622,8 +14520,29 @@
       <c r="S9" s="3">
         <v>0.945662081241607</v>
       </c>
+      <c r="T9">
+        <v>0.96137124300002996</v>
+      </c>
+      <c r="U9">
+        <v>0.99064099788665705</v>
+      </c>
+      <c r="V9">
+        <v>0.90174114704132002</v>
+      </c>
+      <c r="W9">
+        <v>0.95652341842651301</v>
+      </c>
+      <c r="X9">
+        <v>0.98595684766769398</v>
+      </c>
+      <c r="Y9">
+        <v>1.0040146112442001</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8660,6 +14579,12 @@
       <c r="L10">
         <v>0.58114033937454201</v>
       </c>
+      <c r="M10">
+        <v>0.51973682641982999</v>
+      </c>
+      <c r="N10">
+        <v>0.50657892227172796</v>
+      </c>
       <c r="O10">
         <v>0.56798243522643999</v>
       </c>
@@ -8672,8 +14597,29 @@
       <c r="S10" s="3">
         <v>0.962316453456878</v>
       </c>
+      <c r="T10">
+        <v>0.95043367147445601</v>
+      </c>
+      <c r="U10">
+        <v>0.98238271474838201</v>
+      </c>
+      <c r="V10">
+        <v>0.88817721605300903</v>
+      </c>
+      <c r="W10">
+        <v>0.95135360956192005</v>
+      </c>
+      <c r="X10">
+        <v>0.97119164466857899</v>
+      </c>
+      <c r="Y10">
+        <v>1.0000244379043499</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8710,6 +14656,12 @@
       <c r="L11">
         <v>0.57202333211898804</v>
       </c>
+      <c r="M11">
+        <v>0.57368856668472201</v>
+      </c>
+      <c r="N11">
+        <v>0.57618653774261397</v>
+      </c>
       <c r="O11">
         <v>0.61698585748672397</v>
       </c>
@@ -8722,8 +14674,26 @@
       <c r="S11" s="3">
         <v>976038144</v>
       </c>
+      <c r="T11">
+        <v>0.94312769174575795</v>
+      </c>
+      <c r="U11">
+        <v>0.94147998094558705</v>
+      </c>
+      <c r="V11">
+        <v>0.87622153759002597</v>
+      </c>
+      <c r="W11">
+        <v>0.90414065122604304</v>
+      </c>
+      <c r="X11">
+        <v>0.96321725845336903</v>
+      </c>
+      <c r="Y11">
+        <v>0.99342882633209195</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8760,6 +14730,12 @@
       <c r="L12">
         <v>0.61881190538406305</v>
       </c>
+      <c r="M12">
+        <v>0.58415842056274403</v>
+      </c>
+      <c r="N12">
+        <v>0.54950493574142401</v>
+      </c>
       <c r="O12">
         <v>0.59900987148284901</v>
       </c>
@@ -8772,8 +14748,29 @@
       <c r="S12" s="3">
         <v>1.038</v>
       </c>
+      <c r="T12">
+        <v>0.93676632642745905</v>
+      </c>
+      <c r="U12">
+        <v>0.89492106437683105</v>
+      </c>
+      <c r="V12">
+        <v>0.86492615938186601</v>
+      </c>
+      <c r="W12">
+        <v>0.88296961784362704</v>
+      </c>
+      <c r="X12">
+        <v>0.95578026771545399</v>
+      </c>
+      <c r="Y12">
+        <v>0.98526227474212602</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8810,6 +14807,12 @@
       <c r="L13">
         <v>0.57074719667434604</v>
       </c>
+      <c r="M13">
+        <v>0.59459459781646695</v>
+      </c>
+      <c r="N13">
+        <v>0.61049282550811701</v>
+      </c>
       <c r="O13">
         <v>0.62480127811431796</v>
       </c>
@@ -8822,8 +14825,26 @@
       <c r="S13" s="3">
         <v>1.038</v>
       </c>
+      <c r="T13">
+        <v>0.93163722753524703</v>
+      </c>
+      <c r="U13">
+        <v>0.87572991847991899</v>
+      </c>
+      <c r="V13">
+        <v>0.85269528627395597</v>
+      </c>
+      <c r="W13">
+        <v>0.87003892660140902</v>
+      </c>
+      <c r="X13">
+        <v>0.94994688034057595</v>
+      </c>
+      <c r="Y13">
+        <v>0.97451078891754095</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8860,6 +14881,12 @@
       <c r="L14">
         <v>0.56281405687332098</v>
       </c>
+      <c r="M14">
+        <v>0.51758795976638705</v>
+      </c>
+      <c r="N14">
+        <v>0.54773867130279497</v>
+      </c>
       <c r="O14">
         <v>0.59798997640609697</v>
       </c>
@@ -8872,8 +14899,29 @@
       <c r="S14" s="3">
         <v>1.038</v>
       </c>
+      <c r="T14">
+        <v>0.924874067306518</v>
+      </c>
+      <c r="U14">
+        <v>0.86798119544982899</v>
+      </c>
+      <c r="V14">
+        <v>0.83963751792907704</v>
+      </c>
+      <c r="W14">
+        <v>0.93744605779647805</v>
+      </c>
+      <c r="X14">
+        <v>0.94215840101241999</v>
+      </c>
+      <c r="Y14">
+        <v>0.96605581045150701</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8910,6 +14958,12 @@
       <c r="L15">
         <v>0.61345851421356201</v>
       </c>
+      <c r="M15">
+        <v>0.615023493766784</v>
+      </c>
+      <c r="N15">
+        <v>0.61815339326858498</v>
+      </c>
       <c r="O15">
         <v>0.64006257057189897</v>
       </c>
@@ -8922,8 +14976,30 @@
       <c r="S15" s="3">
         <v>1.038</v>
       </c>
+      <c r="T15">
+        <v>0.92016392946243197</v>
+      </c>
+      <c r="U15">
+        <v>0.85971450805663996</v>
+      </c>
+      <c r="V15">
+        <v>0.82684749364852905</v>
+      </c>
+      <c r="W15">
+        <v>0.93725764751434304</v>
+      </c>
+      <c r="X15">
+        <v>0.91426485776901201</v>
+      </c>
+      <c r="Y15">
+        <v>0.95617431402206399</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8960,6 +15036,12 @@
       <c r="L16">
         <v>0.64210528135299605</v>
       </c>
+      <c r="M16">
+        <v>0.64736843109130804</v>
+      </c>
+      <c r="N16">
+        <v>0.61578947305679299</v>
+      </c>
       <c r="O16">
         <v>0.68947368860244695</v>
       </c>
@@ -8972,8 +15054,28 @@
       <c r="S16" s="3">
         <v>1.038</v>
       </c>
+      <c r="T16">
+        <v>0.91525191068649203</v>
+      </c>
+      <c r="U16">
+        <v>0.85297203063964799</v>
+      </c>
+      <c r="V16">
+        <v>0.81281548738479603</v>
+      </c>
+      <c r="W16">
+        <v>0.92911452054977395</v>
+      </c>
+      <c r="X16">
+        <v>0.862193644046783</v>
+      </c>
+      <c r="Y16">
+        <v>0.94798070192337003</v>
+      </c>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9010,6 +15112,12 @@
       <c r="L17">
         <v>0.605000019073486</v>
       </c>
+      <c r="M17">
+        <v>0.61000001430511397</v>
+      </c>
+      <c r="N17">
+        <v>0.61333334445953303</v>
+      </c>
       <c r="O17">
         <v>0.66000002622604304</v>
       </c>
@@ -9020,8 +15128,30 @@
         <v>0.85818123817443803</v>
       </c>
       <c r="S17" s="3"/>
+      <c r="T17">
+        <v>0.90911900997161799</v>
+      </c>
+      <c r="U17">
+        <v>0.84452629089355402</v>
+      </c>
+      <c r="V17">
+        <v>0.79730033874511697</v>
+      </c>
+      <c r="W17">
+        <v>0.92336386442184404</v>
+      </c>
+      <c r="X17">
+        <v>0.84959858655929499</v>
+      </c>
+      <c r="Y17">
+        <v>0.93982958793640103</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9058,6 +15188,12 @@
       <c r="L18">
         <v>0.61682242155074996</v>
       </c>
+      <c r="M18">
+        <v>0.514018714427948</v>
+      </c>
+      <c r="N18">
+        <v>0.57009345293045</v>
+      </c>
       <c r="O18">
         <v>0.62616825103759699</v>
       </c>
@@ -9068,8 +15204,30 @@
         <v>0.84685271978378296</v>
       </c>
       <c r="S18" s="3"/>
+      <c r="T18">
+        <v>0.89859384298324496</v>
+      </c>
+      <c r="U18">
+        <v>0.83819967508315996</v>
+      </c>
+      <c r="V18">
+        <v>0.78135168552398604</v>
+      </c>
+      <c r="W18">
+        <v>0.91835933923721302</v>
+      </c>
+      <c r="X18">
+        <v>0.84010094404220503</v>
+      </c>
+      <c r="Y18">
+        <v>0.93173515796661299</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9106,6 +15264,12 @@
       <c r="L19">
         <v>0.54693138599395696</v>
       </c>
+      <c r="M19">
+        <v>0.60830324888229304</v>
+      </c>
+      <c r="N19">
+        <v>0.563176870346069</v>
+      </c>
       <c r="O19">
         <v>0.59747290611267001</v>
       </c>
@@ -9116,8 +15280,30 @@
         <v>0.84247457981109597</v>
       </c>
       <c r="S19" s="3"/>
+      <c r="T19">
+        <v>0.89621353149413996</v>
+      </c>
+      <c r="U19">
+        <v>0.83871614933013905</v>
+      </c>
+      <c r="V19">
+        <v>0.76364588737487704</v>
+      </c>
+      <c r="W19">
+        <v>0.91361683607101396</v>
+      </c>
+      <c r="X19">
+        <v>0.83087784051895097</v>
+      </c>
+      <c r="Y19">
+        <v>0.92392748594284002</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9154,6 +15340,12 @@
       <c r="L20">
         <v>0.556074738502502</v>
       </c>
+      <c r="M20">
+        <v>0.56074768304824796</v>
+      </c>
+      <c r="N20">
+        <v>0.55140185356140103</v>
+      </c>
       <c r="O20">
         <v>0.54672896862029996</v>
       </c>
@@ -9164,8 +15356,28 @@
         <v>0.84017789363860995</v>
       </c>
       <c r="S20" s="3"/>
+      <c r="T20">
+        <v>0.88959175348281805</v>
+      </c>
+      <c r="U20">
+        <v>0.82853221893310502</v>
+      </c>
+      <c r="V20">
+        <v>0.74517005681991499</v>
+      </c>
+      <c r="W20">
+        <v>0.91236889362335205</v>
+      </c>
+      <c r="X20">
+        <v>0.82567977905273404</v>
+      </c>
+      <c r="Y20">
+        <v>0.91674602031707697</v>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9202,6 +15414,12 @@
       <c r="L21">
         <v>0.585501849651336</v>
       </c>
+      <c r="M21">
+        <v>0.587360620498657</v>
+      </c>
+      <c r="N21">
+        <v>0.58178436756134</v>
+      </c>
       <c r="O21">
         <v>0.57434946298599199</v>
       </c>
@@ -9212,8 +15430,30 @@
         <v>0.83698236942291204</v>
       </c>
       <c r="S21" s="3"/>
+      <c r="T21">
+        <v>0.88384062051773005</v>
+      </c>
+      <c r="U21">
+        <v>0.81978726387023904</v>
+      </c>
+      <c r="V21">
+        <v>0.72634923458099299</v>
+      </c>
+      <c r="W21">
+        <v>0.90191745758056596</v>
+      </c>
+      <c r="X21">
+        <v>0.81931704282760598</v>
+      </c>
+      <c r="Y21">
+        <v>0.90814453363418501</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9250,6 +15490,12 @@
       <c r="L22">
         <v>0.58415842056274403</v>
       </c>
+      <c r="M22">
+        <v>0.56930691003799405</v>
+      </c>
+      <c r="N22">
+        <v>0.57425743341445901</v>
+      </c>
       <c r="O22">
         <v>0.59405940771102905</v>
       </c>
@@ -9260,8 +15506,27 @@
         <v>0.835157930850982</v>
       </c>
       <c r="S22" s="3"/>
+      <c r="T22">
+        <v>0.881028532981872</v>
+      </c>
+      <c r="U22">
+        <v>0.81395488977432195</v>
+      </c>
+      <c r="V22">
+        <v>0.70461004972457797</v>
+      </c>
+      <c r="W22">
+        <v>0.89368528127670199</v>
+      </c>
+      <c r="X22">
+        <v>0.80686312913894598</v>
+      </c>
+      <c r="Y22">
+        <v>0.89928036928176802</v>
+      </c>
+      <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9298,6 +15563,12 @@
       <c r="L23">
         <v>0.62616825103759699</v>
       </c>
+      <c r="M23">
+        <v>0.62616825103759699</v>
+      </c>
+      <c r="N23">
+        <v>0.61682242155074996</v>
+      </c>
       <c r="O23">
         <v>0.65420562028884799</v>
       </c>
@@ -9308,8 +15579,30 @@
         <v>477</v>
       </c>
       <c r="S23" s="3"/>
+      <c r="T23">
+        <v>0.87948518991470304</v>
+      </c>
+      <c r="U23">
+        <v>0.80744612216949396</v>
+      </c>
+      <c r="V23">
+        <v>0.68322145938873202</v>
+      </c>
+      <c r="W23">
+        <v>0.88594424724578802</v>
+      </c>
+      <c r="X23">
+        <v>0.79777723550796498</v>
+      </c>
+      <c r="Y23">
+        <v>0.89045351743698098</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9346,6 +15639,12 @@
       <c r="L24">
         <v>0.69841271638870195</v>
       </c>
+      <c r="M24">
+        <v>0.59259259700775102</v>
+      </c>
+      <c r="N24">
+        <v>0.640211641788482</v>
+      </c>
       <c r="O24">
         <v>0.63492065668106001</v>
       </c>
@@ -9356,8 +15655,29 @@
         <v>1.056</v>
       </c>
       <c r="S24" s="3"/>
+      <c r="T24">
+        <v>0.86159831285476596</v>
+      </c>
+      <c r="U24">
+        <v>0.80421471595764105</v>
+      </c>
+      <c r="V24">
+        <v>0.66116797924041704</v>
+      </c>
+      <c r="W24">
+        <v>0.87628853321075395</v>
+      </c>
+      <c r="X24">
+        <v>0.788463175296783</v>
+      </c>
+      <c r="Y24">
+        <v>0.88179516792297297</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9394,6 +15714,12 @@
       <c r="L25">
         <v>0.61046510934829701</v>
       </c>
+      <c r="M25">
+        <v>0.614341080188751</v>
+      </c>
+      <c r="N25">
+        <v>0.61627906560897805</v>
+      </c>
       <c r="O25">
         <v>0.61627906560897805</v>
       </c>
@@ -9404,8 +15730,26 @@
         <v>1.056</v>
       </c>
       <c r="S25" s="3"/>
+      <c r="T25">
+        <v>0.85371065139770497</v>
+      </c>
+      <c r="U25">
+        <v>0.79786705970764105</v>
+      </c>
+      <c r="V25">
+        <v>0.63805246353149403</v>
+      </c>
+      <c r="W25">
+        <v>0.866915702819824</v>
+      </c>
+      <c r="X25">
+        <v>0.77811849117278997</v>
+      </c>
+      <c r="Y25">
+        <v>0.87101554870605402</v>
+      </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9442,6 +15786,12 @@
       <c r="L26">
         <v>0.63350784778594904</v>
       </c>
+      <c r="M26">
+        <v>0.62303662300109797</v>
+      </c>
+      <c r="N26">
+        <v>0.612565457820892</v>
+      </c>
       <c r="O26">
         <v>0.612565457820892</v>
       </c>
@@ -9450,8 +15800,29 @@
       </c>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
+      <c r="T26">
+        <v>0.851171255111694</v>
+      </c>
+      <c r="U26">
+        <v>0.78925657272338801</v>
+      </c>
+      <c r="V26">
+        <v>0.61465495824813798</v>
+      </c>
+      <c r="W26">
+        <v>0.85937392711639404</v>
+      </c>
+      <c r="X26">
+        <v>0.76951205730438199</v>
+      </c>
+      <c r="Y26">
+        <v>0.85974317789077703</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9488,6 +15859,12 @@
       <c r="L27">
         <v>0.61851853132247903</v>
       </c>
+      <c r="M27">
+        <v>0.65185183286666804</v>
+      </c>
+      <c r="N27">
+        <v>0.61481481790542603</v>
+      </c>
       <c r="O27">
         <v>0.63148146867751997</v>
       </c>
@@ -9496,8 +15873,29 @@
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
+      <c r="T27">
+        <v>0.83710575103759699</v>
+      </c>
+      <c r="U27">
+        <v>0.86503285169601396</v>
+      </c>
+      <c r="V27">
+        <v>0.59101229906082098</v>
+      </c>
+      <c r="W27">
+        <v>0.84569084644317605</v>
+      </c>
+      <c r="X27">
+        <v>0.75998145341873102</v>
+      </c>
+      <c r="Y27">
+        <v>0.84733092784881503</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9534,6 +15932,12 @@
       <c r="L28">
         <v>0.65193372964858998</v>
       </c>
+      <c r="M28">
+        <v>0.56353592872619596</v>
+      </c>
+      <c r="N28">
+        <v>0.62983423471450795</v>
+      </c>
       <c r="O28">
         <v>0.662983417510986</v>
       </c>
@@ -9542,8 +15946,29 @@
       </c>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
+      <c r="T28">
+        <v>0.82738035917282104</v>
+      </c>
+      <c r="U28">
+        <v>0.95084768533706598</v>
+      </c>
+      <c r="V28">
+        <v>0.56895947456359797</v>
+      </c>
+      <c r="W28">
+        <v>0.83238792419433505</v>
+      </c>
+      <c r="X28">
+        <v>0.74569809436798096</v>
+      </c>
+      <c r="Y28">
+        <v>0.83422231674194303</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9580,6 +16005,12 @@
       <c r="L29">
         <v>0.61553782224655096</v>
       </c>
+      <c r="M29">
+        <v>0.65936255455017001</v>
+      </c>
+      <c r="N29">
+        <v>0.62151396274566595</v>
+      </c>
       <c r="O29">
         <v>0.669322729110717</v>
       </c>
@@ -9588,8 +16019,26 @@
       </c>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
+      <c r="T29">
+        <v>0.81050229072570801</v>
+      </c>
+      <c r="U29">
+        <v>0.93356812000274603</v>
+      </c>
+      <c r="V29">
+        <v>0.54622775316238403</v>
+      </c>
+      <c r="W29">
+        <v>0.81364041566848699</v>
+      </c>
+      <c r="X29">
+        <v>0.73300814628600997</v>
+      </c>
+      <c r="Y29">
+        <v>0.82271885871887196</v>
+      </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9626,6 +16075,12 @@
       <c r="L30">
         <v>0.68341708183288497</v>
       </c>
+      <c r="M30">
+        <v>0.66834169626235895</v>
+      </c>
+      <c r="N30">
+        <v>0.69346731901168801</v>
+      </c>
       <c r="O30">
         <v>0.70351761579513505</v>
       </c>
@@ -9634,8 +16089,29 @@
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
+      <c r="T30">
+        <v>0.79890406131744296</v>
+      </c>
+      <c r="U30">
+        <v>0.92408394813537598</v>
+      </c>
+      <c r="V30">
+        <v>0.52465027570724398</v>
+      </c>
+      <c r="W30">
+        <v>0.79498153924942005</v>
+      </c>
+      <c r="X30">
+        <v>0.721560478210449</v>
+      </c>
+      <c r="Y30">
+        <v>0.80819284915923995</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9672,6 +16148,12 @@
       <c r="L31">
         <v>0.62476187944412198</v>
       </c>
+      <c r="M31">
+        <v>0.71047621965408303</v>
+      </c>
+      <c r="N31">
+        <v>0.68380951881408603</v>
+      </c>
       <c r="O31">
         <v>0.67809522151946999</v>
       </c>
@@ -9680,8 +16162,26 @@
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
+      <c r="T31">
+        <v>0.78729587793350198</v>
+      </c>
+      <c r="U31">
+        <v>0.91590124368667603</v>
+      </c>
+      <c r="V31">
+        <v>0.50251293182373002</v>
+      </c>
+      <c r="W31">
+        <v>0.77894961833953802</v>
+      </c>
+      <c r="X31">
+        <v>0.70908224582672097</v>
+      </c>
+      <c r="Y31">
+        <v>0.79215836524963301</v>
+      </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9709,6 +16209,12 @@
       <c r="L32">
         <v>0.61538463830947798</v>
       </c>
+      <c r="M32">
+        <v>0.65088754892349199</v>
+      </c>
+      <c r="N32">
+        <v>0.66272187232971103</v>
+      </c>
       <c r="O32">
         <v>0.66863906383514404</v>
       </c>
@@ -9717,8 +16223,29 @@
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
+      <c r="T32">
+        <v>0.76545530557632402</v>
+      </c>
+      <c r="U32">
+        <v>0.90649455785751298</v>
+      </c>
+      <c r="V32">
+        <v>0.482628554105758</v>
+      </c>
+      <c r="W32">
+        <v>0.75890636444091797</v>
+      </c>
+      <c r="X32">
+        <v>0.69202518463134699</v>
+      </c>
+      <c r="Y32">
+        <v>0.77921307086944502</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9745,8 +16272,26 @@
       </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
+      <c r="T33">
+        <v>0.74517440795898404</v>
+      </c>
+      <c r="U33">
+        <v>0.89605402946472101</v>
+      </c>
+      <c r="V33">
+        <v>0.462867021560668</v>
+      </c>
+      <c r="W33">
+        <v>0.74255049228668202</v>
+      </c>
+      <c r="X33">
+        <v>0.89220696687698298</v>
+      </c>
+      <c r="Y33">
+        <v>0.76472300291061401</v>
+      </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9773,8 +16318,29 @@
       </c>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
+      <c r="T34">
+        <v>0.72477710247039795</v>
+      </c>
+      <c r="U34">
+        <v>0.88744497299194303</v>
+      </c>
+      <c r="V34">
+        <v>0.44395640492439198</v>
+      </c>
+      <c r="W34">
+        <v>0.72325569391250599</v>
+      </c>
+      <c r="X34">
+        <v>0.88185870647430398</v>
+      </c>
+      <c r="Y34">
+        <v>0.74323111772537198</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9796,13 +16362,36 @@
       <c r="J35">
         <v>0.52652776241302401</v>
       </c>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
       <c r="Q35" s="3">
         <v>0.80359226465225198</v>
       </c>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
+      <c r="T35">
+        <v>0.70873260498046797</v>
+      </c>
+      <c r="U35">
+        <v>0.88065522909164395</v>
+      </c>
+      <c r="V35">
+        <v>0.42634409666061401</v>
+      </c>
+      <c r="W35">
+        <v>0.69851070642471302</v>
+      </c>
+      <c r="X35">
+        <v>0.85746729373931796</v>
+      </c>
+      <c r="Y35">
+        <v>0.72463107109069802</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9829,8 +16418,29 @@
       </c>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
+      <c r="T36">
+        <v>0.68617188930511397</v>
+      </c>
+      <c r="U36">
+        <v>0.87041020393371504</v>
+      </c>
+      <c r="V36">
+        <v>0.40960869193076999</v>
+      </c>
+      <c r="W36">
+        <v>0.67952531576156605</v>
+      </c>
+      <c r="X36">
+        <v>0.83729529380798295</v>
+      </c>
+      <c r="Y36">
+        <v>0.70570969581604004</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9857,8 +16467,26 @@
       </c>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
+      <c r="T37">
+        <v>0.66600388288497903</v>
+      </c>
+      <c r="U37">
+        <v>0.86281365156173695</v>
+      </c>
+      <c r="V37">
+        <v>0.39591392874717701</v>
+      </c>
+      <c r="W37">
+        <v>0.65863239765167203</v>
+      </c>
+      <c r="X37">
+        <v>0.81519955396652199</v>
+      </c>
+      <c r="Y37">
+        <v>0.68792963027954102</v>
+      </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -9885,8 +16513,29 @@
       </c>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
+      <c r="T38">
+        <v>0.64646100997924805</v>
+      </c>
+      <c r="U38">
+        <v>0.85213178396224898</v>
+      </c>
+      <c r="V38">
+        <v>0.37981256842613198</v>
+      </c>
+      <c r="W38">
+        <v>0.63192850351333596</v>
+      </c>
+      <c r="X38">
+        <v>0.79278147220611495</v>
+      </c>
+      <c r="Y38">
+        <v>0.67210590839385898</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -9904,8 +16553,26 @@
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
+      <c r="T39">
+        <v>0.62736707925796498</v>
+      </c>
+      <c r="U39">
+        <v>0.84208422899246205</v>
+      </c>
+      <c r="V39">
+        <v>0.36803859472274703</v>
+      </c>
+      <c r="W39">
+        <v>0.62081241607666005</v>
+      </c>
+      <c r="X39">
+        <v>0.77272152900695801</v>
+      </c>
+      <c r="Y39">
+        <v>0.65218126773834195</v>
+      </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -9923,8 +16590,26 @@
       </c>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
+      <c r="T40">
+        <v>0.59651643037795998</v>
+      </c>
+      <c r="U40">
+        <v>0.83519226312637296</v>
+      </c>
+      <c r="V40">
+        <v>0.35823503136634799</v>
+      </c>
+      <c r="W40">
+        <v>0.59839391708374001</v>
+      </c>
+      <c r="X40">
+        <v>0.74046611785888605</v>
+      </c>
+      <c r="Y40">
+        <v>0.63484311103820801</v>
+      </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -9942,8 +16627,26 @@
       </c>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
+      <c r="T41">
+        <v>0.57528489828109697</v>
+      </c>
+      <c r="U41">
+        <v>0.82299041748046797</v>
+      </c>
+      <c r="V41">
+        <v>0.34613817930221502</v>
+      </c>
+      <c r="W41">
+        <v>0.56429135799407903</v>
+      </c>
+      <c r="X41">
+        <v>0.71589183807373002</v>
+      </c>
+      <c r="Y41">
+        <v>0.61687654256820601</v>
+      </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -9961,56 +16664,206 @@
       </c>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
+      <c r="T42">
+        <v>0.54640847444534302</v>
+      </c>
+      <c r="U42">
+        <v>0.81167596578598</v>
+      </c>
+      <c r="V42">
+        <v>0.336194097995758</v>
+      </c>
+      <c r="W42">
+        <v>0.54676181077957098</v>
+      </c>
+      <c r="X42">
+        <v>0.66894286870956399</v>
+      </c>
+      <c r="Y42">
+        <v>0.59753710031509399</v>
+      </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
+      <c r="T43">
+        <v>0.52776730060577304</v>
+      </c>
+      <c r="V43">
+        <v>0.32634022831916798</v>
+      </c>
+      <c r="W43">
+        <v>0.52885401248931796</v>
+      </c>
+      <c r="X43">
+        <v>0.62952268123626698</v>
+      </c>
+      <c r="Y43">
+        <v>0.58250874280929499</v>
+      </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
+      <c r="T44">
+        <v>0.50577461719512895</v>
+      </c>
+      <c r="V44">
+        <v>0.31857731938362099</v>
+      </c>
+      <c r="W44">
+        <v>0.52205884456634499</v>
+      </c>
+      <c r="Y44">
+        <v>0.56619656085967995</v>
+      </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
+      <c r="T45">
+        <v>0.49222013354301403</v>
+      </c>
+      <c r="V45">
+        <v>0.31250753998756398</v>
+      </c>
+      <c r="W45">
+        <v>0.48227742314338601</v>
+      </c>
+      <c r="Y45">
+        <v>0.55352264642715399</v>
+      </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
+      <c r="T46">
+        <v>0.46821144223213101</v>
+      </c>
+      <c r="V46">
+        <v>0.30238568782806302</v>
+      </c>
+      <c r="W46">
+        <v>0.45985120534896801</v>
+      </c>
+      <c r="Y46">
+        <v>0.53930205106735196</v>
+      </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
+      <c r="T47">
+        <v>0.45668008923530501</v>
+      </c>
+      <c r="V47">
+        <v>0.29379945993423401</v>
+      </c>
+      <c r="W47">
+        <v>0.43046405911445601</v>
+      </c>
+      <c r="Y47">
+        <v>0.52196645736694303</v>
+      </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
+      <c r="T48">
+        <v>0.435763388872146</v>
+      </c>
+      <c r="V48">
+        <v>0.28623524308204601</v>
+      </c>
+      <c r="W48">
+        <v>0.414477229118347</v>
+      </c>
+      <c r="Y48">
+        <v>0.51202154159545898</v>
+      </c>
     </row>
-    <row r="49" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
+      <c r="V49">
+        <v>0.27927994728088301</v>
+      </c>
+      <c r="W49">
+        <v>0.39776611328125</v>
+      </c>
+      <c r="Y49">
+        <v>0.49922284483909601</v>
+      </c>
     </row>
-    <row r="50" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
+      <c r="V50">
+        <v>0.27494293451309199</v>
+      </c>
+      <c r="W50">
+        <v>0.36520317196846003</v>
+      </c>
+      <c r="Y50">
+        <v>0.48641505837440402</v>
+      </c>
     </row>
-    <row r="51" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
       <c r="S51" s="3"/>
+      <c r="V51">
+        <v>0.26630407571792603</v>
+      </c>
+      <c r="W51">
+        <v>0.36132836341857899</v>
+      </c>
     </row>
-    <row r="52" spans="17:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
+      <c r="V52">
+        <v>0.26247870922088601</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
